--- a/bitacora/bitacora_practicas.xlsx
+++ b/bitacora/bitacora_practicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelitobelenlopez/Documents/curso_PLSQL/bitacora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A570072-311C-524E-B9A3-0F0DF01A383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C1409B-50CD-8349-A29B-D66BE4383DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{3991CA04-DEF6-A245-8FB8-C3E0F3D9B4E3}"/>
   </bookViews>
@@ -139,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,13 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +528,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +537,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
